--- a/Nested_Products.xlsx
+++ b/Nested_Products.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuber Inventory\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -191,13 +196,22 @@
   </si>
   <si>
     <t>30/7/4.27</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>Gl wire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,12 +220,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,7 +251,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -230,36 +259,35 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -306,7 +334,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,9 +366,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,6 +401,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -547,663 +577,840 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>1000</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="3">
         <v>1.5</v>
       </c>
-      <c r="G2">
-        <v>0.05905511811023623</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
+      <c r="H2" s="7">
+        <f t="shared" ref="H2:H21" si="0">G2/25.4</f>
+        <v>5.9055118110236227E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>1200</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G3" s="3">
         <v>2.11</v>
       </c>
-      <c r="G3">
-        <v>0.08307086614173229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
+      <c r="H3" s="7">
+        <f t="shared" si="0"/>
+        <v>8.3070866141732286E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>900</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G4" s="3">
         <v>2.59</v>
       </c>
-      <c r="G4">
-        <v>0.1019685039370079</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
+      <c r="H4" s="7">
+        <f t="shared" si="0"/>
+        <v>0.10196850393700788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>800</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G5" s="3">
         <v>3.35</v>
       </c>
-      <c r="G5">
-        <v>0.1318897637795276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13188976377952757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>1100</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="3">
         <v>4.09</v>
       </c>
-      <c r="G6">
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
         <v>0.1610236220472441</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>500</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
+        <v>500</v>
+      </c>
+      <c r="G7" s="3">
         <v>2.59</v>
       </c>
-      <c r="G7">
-        <v>0.1019685039370079</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.10196850393700788</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>500</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
+        <v>500</v>
+      </c>
+      <c r="G8" s="3">
         <v>3</v>
       </c>
-      <c r="G8">
-        <v>0.1181102362204725</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.11811023622047245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>600</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
+        <v>800</v>
+      </c>
+      <c r="G9" s="3">
         <v>3.18</v>
       </c>
-      <c r="G9">
-        <v>0.1251968503937008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.12519685039370079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>600</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
+        <v>800</v>
+      </c>
+      <c r="G10" s="3">
         <v>3.53</v>
       </c>
-      <c r="G10">
-        <v>0.1389763779527559</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13897637795275591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>900</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
+        <v>800</v>
+      </c>
+      <c r="G11" s="3">
         <v>2.36</v>
       </c>
-      <c r="G11">
-        <v>0.09291338582677165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>9.2913385826771652E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>800</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
+        <v>800</v>
+      </c>
+      <c r="G12" s="3">
         <v>2.79</v>
       </c>
-      <c r="G12">
-        <v>0.1098425196850394</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.10984251968503937</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>1100</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
+        <v>800</v>
+      </c>
+      <c r="G13" s="3">
         <v>3</v>
       </c>
-      <c r="G13">
-        <v>0.1181102362204725</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.11811023622047245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>6</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>250</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
+        <v>250</v>
+      </c>
+      <c r="G14" s="3">
         <v>3.66</v>
       </c>
-      <c r="G14">
-        <v>0.1440944881889764</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.14409448818897638</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>6</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>300</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
+        <v>300</v>
+      </c>
+      <c r="G15" s="3">
         <v>3.99</v>
       </c>
-      <c r="G15">
-        <v>0.1570866141732284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.15708661417322836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>6</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>200</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
+        <v>200</v>
+      </c>
+      <c r="G16" s="3">
         <v>4.22</v>
       </c>
-      <c r="G16">
-        <v>0.1661417322834646</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>0.16614173228346457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>6</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>250</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
+        <v>250</v>
+      </c>
+      <c r="G17" s="3">
         <v>4.5</v>
       </c>
-      <c r="G17">
-        <v>0.1771653543307087</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.17716535433070868</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>19</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>7</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>500</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="6">
+        <v>250</v>
+      </c>
+      <c r="G18" s="3">
         <v>2.36</v>
       </c>
-      <c r="G18">
-        <v>0.09291338582677165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>9.2913385826771652E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>20</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>7</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>700</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
+        <v>250</v>
+      </c>
+      <c r="G19" s="3">
         <v>3.18</v>
       </c>
-      <c r="G19">
-        <v>0.1251968503937008</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.12519685039370079</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>21</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>7</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>800</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="6">
+        <v>250</v>
+      </c>
+      <c r="G20" s="3">
         <v>3.71</v>
       </c>
-      <c r="G20">
-        <v>0.1460629921259843</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>0.14606299212598425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>22</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>7</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>1000</v>
       </c>
-      <c r="F21">
-        <v>4.27</v>
-      </c>
-      <c r="G21">
-        <v>0.1681102362204724</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
+      <c r="F21" s="6">
+        <v>250</v>
+      </c>
+      <c r="G21" s="3">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>0.16811023622047244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>23</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>4</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E22">
+      <c r="D22" s="6"/>
+      <c r="E22" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
+      <c r="F22" s="6">
+        <v>100</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>24</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>4</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E23">
+      <c r="D23" s="6"/>
+      <c r="E23" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
+      <c r="F23" s="6">
+        <v>100</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>25</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>4</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E24">
+      <c r="D24" s="6"/>
+      <c r="E24" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
+      <c r="F24" s="6">
+        <v>100</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>26</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>3</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E25">
+      <c r="D25" s="6"/>
+      <c r="E25" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
+      <c r="F25" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>27</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>3</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E26">
+      <c r="D26" s="6"/>
+      <c r="E26" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
+      <c r="F26" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>28</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>3</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E27">
+      <c r="D27" s="6"/>
+      <c r="E27" s="1">
         <v>4400</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
+      <c r="F27" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>29</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="6">
         <v>3</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
+        <v>200</v>
+      </c>
+      <c r="F28" s="6">
+        <v>200</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E28">
+      <c r="D29" s="6"/>
+      <c r="E29" s="1">
         <v>3000</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>30</v>
-      </c>
-      <c r="B29">
+      <c r="F29" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1">
         <v>5</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E29">
+      <c r="D30" s="6"/>
+      <c r="E30" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>31</v>
-      </c>
-      <c r="B30">
+      <c r="F30" s="6">
+        <v>50</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1">
         <v>5</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E30">
+      <c r="D31" s="6"/>
+      <c r="E31" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>32</v>
-      </c>
-      <c r="B31">
+      <c r="F31" s="6">
+        <v>50</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1">
         <v>5</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E31">
+      <c r="D32" s="6"/>
+      <c r="E32" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>33</v>
-      </c>
-      <c r="B32">
+      <c r="F32" s="6">
+        <v>50</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1">
         <v>5</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E32">
+      <c r="D33" s="6"/>
+      <c r="E33" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>34</v>
-      </c>
-      <c r="B33">
+      <c r="F33" s="6">
+        <v>50</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1">
         <v>8</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E33">
+      <c r="D34" s="6"/>
+      <c r="E34" s="1">
         <v>100</v>
       </c>
+      <c r="F34" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
